--- a/public/doc/도서구입신청서.xlsx
+++ b/public/doc/도서구입신청서.xlsx
@@ -678,6 +678,117 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -693,12 +804,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -744,66 +849,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,51 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1189,154 +1189,156 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:P20"/>
+      <selection activeCell="K12" sqref="K12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="5" style="2" customWidth="1"/>
+    <col min="1" max="7" width="5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="2" customWidth="1"/>
+    <col min="9" max="16" width="5" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="59" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54" t="s">
+      <c r="L3" s="28"/>
+      <c r="M3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="50" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="51"/>
+      <c r="P3" s="56"/>
     </row>
     <row r="4" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="49"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="31"/>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="54" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="54" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="62"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="53"/>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="78"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
       <c r="A7" s="3"/>
@@ -1380,104 +1382,104 @@
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="73" t="s">
+      <c r="J9" s="36"/>
+      <c r="K9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="75"/>
-      <c r="M9" s="73" t="s">
+      <c r="L9" s="36"/>
+      <c r="M9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="75"/>
-      <c r="O9" s="74" t="s">
+      <c r="N9" s="36"/>
+      <c r="O9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="76"/>
+      <c r="P9" s="37"/>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="49"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="49"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="49"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
@@ -1492,12 +1494,12 @@
       <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
@@ -1512,12 +1514,12 @@
       <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
@@ -1532,12 +1534,12 @@
       <c r="A16" s="10">
         <v>7</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
@@ -1552,120 +1554,120 @@
       <c r="A17" s="10">
         <v>8</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="49"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="29">
+      <c r="I18" s="63"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="64">
         <f>SUM(I10:J17)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="66"/>
     </row>
     <row r="19" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="69"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="84"/>
     </row>
     <row r="20" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="61"/>
     </row>
     <row r="21" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="61"/>
     </row>
     <row r="22" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="43"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="78"/>
     </row>
     <row r="23" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
       <c r="A23" s="12"/>
@@ -1706,66 +1708,119 @@
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="69"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="84"/>
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="61"/>
     </row>
     <row r="27" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="72"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="C5:E5 H5:J5 M5:P5 C6:P6 B10:P17 D19:P22" name="범위1"/>
   </protectedRanges>
   <mergeCells count="69">
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="A19:C22"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C6:P6"/>
     <mergeCell ref="A6:B6"/>
@@ -1782,62 +1837,9 @@
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="A19:C22"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="A25:C27"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="D19:P19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.74" right="0.70866141732283472" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
+  <pageMargins left="0.74803149606299213" right="0.70866141732283472" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;G&amp;R

--- a/public/doc/도서구입신청서.xlsx
+++ b/public/doc/도서구입신청서.xlsx
@@ -16,17 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>팀장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>임원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부사장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -678,6 +674,99 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -687,193 +776,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1189,7 +1185,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:L12"/>
+      <selection activeCell="M4" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1201,144 +1197,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="38" t="s">
+      <c r="A1" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="I1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="63"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
+    </row>
+    <row r="2" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="62"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="I3" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L3" s="63"/>
+      <c r="M3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="56"/>
-    </row>
-    <row r="2" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="50" t="s">
+      <c r="N3" s="63"/>
+      <c r="O3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="60"/>
+    </row>
+    <row r="4" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="58"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="56"/>
-    </row>
-    <row r="4" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="31"/>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="28" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="28" t="s">
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="80"/>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
+      <c r="A6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="53"/>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="87"/>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
       <c r="A7" s="3"/>
@@ -1360,7 +1356,7 @@
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1380,106 +1376,106 @@
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="34" t="s">
+      <c r="L9" s="84"/>
+      <c r="M9" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="34" t="s">
+      <c r="N9" s="84"/>
+      <c r="O9" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="37"/>
+      <c r="P9" s="85"/>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="31"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="58"/>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="31"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="58"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="31"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="58"/>
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
@@ -1494,12 +1490,12 @@
       <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
@@ -1514,12 +1510,12 @@
       <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
@@ -1534,12 +1530,12 @@
       <c r="A16" s="10">
         <v>7</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
@@ -1554,120 +1550,120 @@
       <c r="A17" s="10">
         <v>8</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="31"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="58"/>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="64">
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="29">
         <f>SUM(I10:J17)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="66"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A19" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="84"/>
+      <c r="A19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="61"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
     </row>
     <row r="21" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="61"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
     </row>
     <row r="22" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="78"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="43"/>
     </row>
     <row r="23" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
       <c r="A23" s="12"/>
@@ -1689,7 +1685,7 @@
     </row>
     <row r="24" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="13"/>
@@ -1708,93 +1704,92 @@
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A25" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="84"/>
+      <c r="A25" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="61"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24"/>
     </row>
     <row r="27" spans="1:16" s="2" customFormat="1" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="87"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="C5:E5 H5:J5 M5:P5 C6:P6 B10:P17 D19:P22" name="범위1"/>
   </protectedRanges>
   <mergeCells count="69">
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="A19:C22"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="A25:C27"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="A1:F4"/>
@@ -1811,32 +1806,33 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="A19:C22"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="D19:P19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.70866141732283472" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
